--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angpt1-Tie1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Angpt1</t>
+  </si>
+  <si>
+    <t>Tie1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Angpt1</t>
-  </si>
-  <si>
-    <t>Tie1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1659303333333333</v>
+        <v>12.95459633333333</v>
       </c>
       <c r="H2">
-        <v>0.497791</v>
+        <v>38.863789</v>
       </c>
       <c r="I2">
-        <v>0.01127931880021135</v>
+        <v>0.8906505749177925</v>
       </c>
       <c r="J2">
-        <v>0.01127931880021135</v>
+        <v>0.8906505749177924</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.58696433333333</v>
+        <v>61.58332300000001</v>
       </c>
       <c r="N2">
-        <v>103.760893</v>
+        <v>184.749969</v>
       </c>
       <c r="O2">
-        <v>0.9801058085769325</v>
+        <v>0.9887285514905405</v>
       </c>
       <c r="P2">
-        <v>0.9801058085769326</v>
+        <v>0.9887285514905406</v>
       </c>
       <c r="Q2">
-        <v>5.73902652081811</v>
+        <v>797.7870903302824</v>
       </c>
       <c r="R2">
-        <v>51.651238687363</v>
+        <v>7180.083812972542</v>
       </c>
       <c r="S2">
-        <v>0.01105492587287814</v>
+        <v>0.8806116528226862</v>
       </c>
       <c r="T2">
-        <v>0.01105492587287814</v>
+        <v>0.8806116528226862</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.1659303333333333</v>
+        <v>12.95459633333333</v>
       </c>
       <c r="H3">
-        <v>0.497791</v>
+        <v>38.863789</v>
       </c>
       <c r="I3">
-        <v>0.01127931880021135</v>
+        <v>0.8906505749177925</v>
       </c>
       <c r="J3">
-        <v>0.01127931880021135</v>
+        <v>0.8906505749177924</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>0.773258</v>
       </c>
       <c r="O3">
-        <v>0.007304049101896046</v>
+        <v>0.004138253805436213</v>
       </c>
       <c r="P3">
-        <v>0.007304049101896047</v>
+        <v>0.004138253805436213</v>
       </c>
       <c r="Q3">
-        <v>0.04276898589755555</v>
+        <v>3.339081750506889</v>
       </c>
       <c r="R3">
-        <v>0.384920873078</v>
+        <v>30.051735754562</v>
       </c>
       <c r="S3">
-        <v>8.238469835268292E-05</v>
+        <v>0.003685738130967506</v>
       </c>
       <c r="T3">
-        <v>8.238469835268292E-05</v>
+        <v>0.003685738130967506</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.1659303333333333</v>
+        <v>12.95459633333333</v>
       </c>
       <c r="H4">
-        <v>0.497791</v>
+        <v>38.863789</v>
       </c>
       <c r="I4">
-        <v>0.01127931880021135</v>
+        <v>0.8906505749177925</v>
       </c>
       <c r="J4">
-        <v>0.01127931880021135</v>
+        <v>0.8906505749177924</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>1.332881</v>
       </c>
       <c r="O4">
-        <v>0.01259014232117133</v>
+        <v>0.007133194704023267</v>
       </c>
       <c r="P4">
-        <v>0.01259014232117133</v>
+        <v>0.007133194704023268</v>
       </c>
       <c r="Q4">
-        <v>0.07372179620788888</v>
+        <v>5.755645105123222</v>
       </c>
       <c r="R4">
-        <v>0.663496165871</v>
+        <v>51.80080594610899</v>
       </c>
       <c r="S4">
-        <v>0.0001420082289805244</v>
+        <v>0.006353183964138876</v>
       </c>
       <c r="T4">
-        <v>0.0001420082289805244</v>
+        <v>0.006353183964138876</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.95459633333333</v>
+        <v>1.590497666666667</v>
       </c>
       <c r="H5">
-        <v>38.863789</v>
+        <v>4.771493</v>
       </c>
       <c r="I5">
-        <v>0.8806046431437031</v>
+        <v>0.1093494250822076</v>
       </c>
       <c r="J5">
-        <v>0.8806046431437031</v>
+        <v>0.1093494250822076</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.58696433333333</v>
+        <v>61.58332300000001</v>
       </c>
       <c r="N5">
-        <v>103.760893</v>
+        <v>184.749969</v>
       </c>
       <c r="O5">
-        <v>0.9801058085769325</v>
+        <v>0.9887285514905405</v>
       </c>
       <c r="P5">
-        <v>0.9801058085769326</v>
+        <v>0.9887285514905406</v>
       </c>
       <c r="Q5">
-        <v>448.0601613337308</v>
+        <v>97.94813153707969</v>
       </c>
       <c r="R5">
-        <v>4032.541452003577</v>
+        <v>881.5331838337172</v>
       </c>
       <c r="S5">
-        <v>0.8630857258049602</v>
+        <v>0.1081168986678545</v>
       </c>
       <c r="T5">
-        <v>0.8630857258049603</v>
+        <v>0.1081168986678545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.95459633333333</v>
+        <v>1.590497666666667</v>
       </c>
       <c r="H6">
-        <v>38.863789</v>
+        <v>4.771493</v>
       </c>
       <c r="I6">
-        <v>0.8806046431437031</v>
+        <v>0.1093494250822076</v>
       </c>
       <c r="J6">
-        <v>0.8806046431437031</v>
+        <v>0.1093494250822076</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>0.773258</v>
       </c>
       <c r="O6">
-        <v>0.007304049101896046</v>
+        <v>0.004138253805436213</v>
       </c>
       <c r="P6">
-        <v>0.007304049101896047</v>
+        <v>0.004138253805436213</v>
       </c>
       <c r="Q6">
-        <v>3.339081750506889</v>
+        <v>0.4099550149104445</v>
       </c>
       <c r="R6">
-        <v>30.051735754562</v>
+        <v>3.689595134194001</v>
       </c>
       <c r="S6">
-        <v>0.006431979552879253</v>
+        <v>0.0004525156744687076</v>
       </c>
       <c r="T6">
-        <v>0.006431979552879254</v>
+        <v>0.0004525156744687076</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.95459633333333</v>
+        <v>1.590497666666667</v>
       </c>
       <c r="H7">
-        <v>38.863789</v>
+        <v>4.771493</v>
       </c>
       <c r="I7">
-        <v>0.8806046431437031</v>
+        <v>0.1093494250822076</v>
       </c>
       <c r="J7">
-        <v>0.8806046431437031</v>
+        <v>0.1093494250822076</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,208 +868,22 @@
         <v>1.332881</v>
       </c>
       <c r="O7">
-        <v>0.01259014232117133</v>
+        <v>0.007133194704023267</v>
       </c>
       <c r="P7">
-        <v>0.01259014232117133</v>
+        <v>0.007133194704023268</v>
       </c>
       <c r="Q7">
-        <v>5.755645105123222</v>
+        <v>0.7066480401481111</v>
       </c>
       <c r="R7">
-        <v>51.80080594610899</v>
+        <v>6.359832361333001</v>
       </c>
       <c r="S7">
-        <v>0.01108693778586352</v>
+        <v>0.0007800107398843921</v>
       </c>
       <c r="T7">
-        <v>0.01108693778586352</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.590497666666667</v>
-      </c>
-      <c r="H8">
-        <v>4.771493</v>
-      </c>
-      <c r="I8">
-        <v>0.1081160380560855</v>
-      </c>
-      <c r="J8">
-        <v>0.1081160380560855</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>34.58696433333333</v>
-      </c>
-      <c r="N8">
-        <v>103.760893</v>
-      </c>
-      <c r="O8">
-        <v>0.9801058085769325</v>
-      </c>
-      <c r="P8">
-        <v>0.9801058085769326</v>
-      </c>
-      <c r="Q8">
-        <v>55.01048606924989</v>
-      </c>
-      <c r="R8">
-        <v>495.0943746232489</v>
-      </c>
-      <c r="S8">
-        <v>0.1059651568990941</v>
-      </c>
-      <c r="T8">
-        <v>0.1059651568990941</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.590497666666667</v>
-      </c>
-      <c r="H9">
-        <v>4.771493</v>
-      </c>
-      <c r="I9">
-        <v>0.1081160380560855</v>
-      </c>
-      <c r="J9">
-        <v>0.1081160380560855</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.2577526666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.773258</v>
-      </c>
-      <c r="O9">
-        <v>0.007304049101896046</v>
-      </c>
-      <c r="P9">
-        <v>0.007304049101896047</v>
-      </c>
-      <c r="Q9">
-        <v>0.4099550149104444</v>
-      </c>
-      <c r="R9">
-        <v>3.689595134194</v>
-      </c>
-      <c r="S9">
-        <v>0.0007896848506641101</v>
-      </c>
-      <c r="T9">
-        <v>0.0007896848506641102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.590497666666667</v>
-      </c>
-      <c r="H10">
-        <v>4.771493</v>
-      </c>
-      <c r="I10">
-        <v>0.1081160380560855</v>
-      </c>
-      <c r="J10">
-        <v>0.1081160380560855</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.4442936666666666</v>
-      </c>
-      <c r="N10">
-        <v>1.332881</v>
-      </c>
-      <c r="O10">
-        <v>0.01259014232117133</v>
-      </c>
-      <c r="P10">
-        <v>0.01259014232117133</v>
-      </c>
-      <c r="Q10">
-        <v>0.706648040148111</v>
-      </c>
-      <c r="R10">
-        <v>6.359832361332999</v>
-      </c>
-      <c r="S10">
-        <v>0.001361196306327293</v>
-      </c>
-      <c r="T10">
-        <v>0.001361196306327293</v>
+        <v>0.0007800107398843922</v>
       </c>
     </row>
   </sheetData>
